--- a/tiretrainingdata.xlsx
+++ b/tiretrainingdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarora\Documents\Local\R129\Design Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarora\Documents\Local\Vehicle Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187470DC-8D01-4207-BE91-BF6884E96145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B345083-BAE1-48EA-8A81-52A1D6B8A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10E3E5CB-56F8-4418-A79C-00BCE81C47B9}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B474A4-5297-4B5A-893C-1EB9A2F46335}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,134 +448,134 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.14117705315508847</v>
+        <v>0.24025099671004005</v>
       </c>
       <c r="B3">
-        <v>0.14763265306122447</v>
+        <v>0.25247619047619041</v>
       </c>
       <c r="C3">
-        <v>0.1476326530612245</v>
+        <v>0.25247619047619041</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.28237561153452867</v>
+        <v>0.48053859038445579</v>
       </c>
       <c r="B4">
-        <v>0.28880612244897957</v>
+        <v>0.49272108843537404</v>
       </c>
       <c r="C4">
-        <v>0.21748035988588982</v>
+        <v>0.43869166127989645</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.42361719346806381</v>
+        <v>0.72089940028999633</v>
       </c>
       <c r="B5">
-        <v>0.41852040816326513</v>
+        <v>0.71575510204081627</v>
       </c>
       <c r="C5">
-        <v>0.2254175992977836</v>
+        <v>0.56435854341736691</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.56492334351319462</v>
+        <v>0.96137009032704435</v>
       </c>
       <c r="B6">
-        <v>0.53752040816326518</v>
+        <v>0.91900680272108837</v>
       </c>
       <c r="C6">
-        <v>0.21113056835637481</v>
+        <v>0.61919500107735392</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.70631564561153337</v>
+        <v>1.2019873914187169</v>
       </c>
       <c r="B7">
-        <v>0.64428571428571413</v>
+        <v>1.0998775510204082</v>
       </c>
       <c r="C7">
-        <v>0.1476326530612245</v>
+        <v>0.61576772247360467</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.84781573629623441</v>
+        <v>1.4427881239868845</v>
       </c>
       <c r="B8">
-        <v>0.74097959183673456</v>
+        <v>1.2657687074829931</v>
       </c>
       <c r="C8">
-        <v>7.6197498354180382E-2</v>
+        <v>0.56778582202111605</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.98944531796769986</v>
+        <v>1.6838092205443826</v>
       </c>
       <c r="B9">
-        <v>0.82565306122448978</v>
+        <v>1.4106666666666665</v>
       </c>
       <c r="C9">
-        <v>-1.5874478823787577E-2</v>
+        <v>0.46953716871363921</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.1312261722549235</v>
+        <v>1.9250877484329545</v>
       </c>
       <c r="B10">
-        <v>0.89779591836734673</v>
+        <v>1.5281360544217686</v>
       </c>
       <c r="C10">
-        <v>-0.1095339038841343</v>
+        <v>0.32559146735617317</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.2731801734800055</v>
+        <v>2.1666609327367734</v>
       </c>
       <c r="B11">
-        <v>0.95947959183673448</v>
+        <v>1.6258503401360542</v>
       </c>
       <c r="C11">
-        <v>-0.22224270353302608</v>
+        <v>0.15993966817496225</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.4153293022436277</v>
+        <v>2.408566179401805</v>
       </c>
       <c r="B12">
-        <v>1.0108061224489795</v>
+        <v>1.7062176870748296</v>
       </c>
       <c r="C12">
-        <v>-0.32860171165240282</v>
+        <v>-2.0563671622495148E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.5576956591495268</v>
+        <v>2.6508410985917212</v>
       </c>
       <c r="B13">
-        <v>1.0524285714285715</v>
+        <v>1.7727482993197277</v>
       </c>
       <c r="C13">
-        <v>-0.43496071977177964</v>
+        <v>-0.19421245421245417</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.7003014786863366</v>
+        <v>2.8935235283116096</v>
       </c>
       <c r="B14">
-        <v>1.0865816326530611</v>
+        <v>1.8270476190476188</v>
       </c>
       <c r="C14">
-        <v>-0.53973228000877771</v>
+        <v>-0.3655763843999138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,134 +591,134 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.13895396465220755</v>
+        <v>0.20509704310546614</v>
       </c>
       <c r="B16">
-        <v>0.14207725947521865</v>
+        <v>0.21087755102040812</v>
       </c>
       <c r="C16">
-        <v>0.14207725947521868</v>
+        <v>0.21087755102040812</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.27792909589004372</v>
+        <v>0.41022532824231983</v>
       </c>
       <c r="B17">
-        <v>0.28102769679300288</v>
+        <v>0.41596938775510195</v>
       </c>
       <c r="C17">
-        <v>0.22235883360247977</v>
+        <v>0.3792483705524094</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.41694657319816053</v>
+        <v>0.61541611648099881</v>
       </c>
       <c r="B18">
-        <v>0.41072886297376088</v>
+        <v>0.60816326530612241</v>
       </c>
       <c r="C18">
-        <v>0.26936580792699444</v>
+        <v>0.50897670691313168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.55602760187596389</v>
+        <v>0.82070070699470188</v>
       </c>
       <c r="B19">
-        <v>0.53130466472303206</v>
+        <v>0.78648979591836732</v>
       </c>
       <c r="C19">
-        <v>0.28785169670629807</v>
+        <v>0.58129335399081083</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.69519342598679723</v>
+        <v>1.0261104561724763</v>
       </c>
       <c r="B20">
-        <v>0.63991253644314872</v>
+        <v>0.94689795918367348</v>
       </c>
       <c r="C20">
-        <v>0.28257001419792555</v>
+        <v>0.61331141147558488</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.83446534135739647</v>
+        <v>1.2316767968065063</v>
       </c>
       <c r="B21">
-        <v>0.73760204081632641</v>
+        <v>1.0962959183673466</v>
       </c>
       <c r="C21">
-        <v>0.25774610640857515</v>
+        <v>0.60116663105032597</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.97386470864454722</v>
+        <v>1.4374312573785908</v>
       </c>
       <c r="B22">
-        <v>0.82115889212827986</v>
+        <v>1.2314795918367345</v>
       </c>
       <c r="C22">
-        <v>0.21654898284327004</v>
+        <v>0.55755582861416808</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.1134129664860275</v>
+        <v>1.6434054814710308</v>
       </c>
       <c r="B23">
-        <v>0.89101311953352746</v>
+        <v>1.3499795918367348</v>
       </c>
       <c r="C23">
-        <v>0.17588002752880227</v>
+        <v>0.48689528795811515</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.2531316447531016</v>
+        <v>1.8496312473274039</v>
       </c>
       <c r="B24">
-        <v>0.95019679300291549</v>
+        <v>1.4522755102040816</v>
       </c>
       <c r="C24">
-        <v>0.13151389445847378</v>
+        <v>0.40132978950742598</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.3930423779220673</v>
+        <v>2.0561404875890621</v>
       </c>
       <c r="B25">
-        <v>1.0015962099125364</v>
+        <v>1.5368775510204082</v>
       </c>
       <c r="C25">
-        <v>8.714776138814527E-2</v>
+        <v>0.29423490757559567</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.5331669185826104</v>
+        <v>2.2629653092335631</v>
       </c>
       <c r="B26">
-        <v>1.046195335276968</v>
+        <v>1.6060408163265305</v>
       </c>
       <c r="C26">
-        <v>4.4366133070328495E-2</v>
+        <v>0.17830745806175871</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.6735271511010543</v>
+        <v>2.4701380137417193</v>
       </c>
       <c r="B27">
-        <v>1.0781486880466471</v>
+        <v>1.6633979591836734</v>
       </c>
       <c r="C27">
-        <v>-1.9014057030140787E-2</v>
+        <v>6.0723902126295547E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,706 +734,134 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.13293704806490172</v>
+        <v>0.17545751519839933</v>
       </c>
       <c r="B29">
-        <v>0.13445790816326531</v>
+        <v>0.18263673469387753</v>
       </c>
       <c r="C29">
-        <v>0.13445790816326531</v>
+        <v>0.18263673469387753</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.26589434617029806</v>
+        <v>0.35094175749687773</v>
       </c>
       <c r="B30">
-        <v>0.26739158163265303</v>
+        <v>0.35808979591836737</v>
       </c>
       <c r="C30">
-        <v>0.21974067344329035</v>
+        <v>0.32293813433419344</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.39889215669715966</v>
+        <v>0.5264794702831429</v>
       </c>
       <c r="B31">
-        <v>0.39033801020408154</v>
+        <v>0.52228571428571413</v>
       </c>
       <c r="C31">
-        <v>0.26616475938201367</v>
+        <v>0.42230371412932988</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.53195076672339314</v>
+        <v>0.7020974295412562</v>
       </c>
       <c r="B32">
-        <v>0.50279336734693869</v>
+        <v>0.67372244897959177</v>
       </c>
       <c r="C32">
-        <v>0.27682510504201685</v>
+        <v>0.48003371647509574</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.665090500412306</v>
+        <v>0.87782246020259891</v>
       </c>
       <c r="B33">
-        <v>0.60402423469387745</v>
+        <v>0.80955102040816318</v>
       </c>
       <c r="C33">
-        <v>0.26719640573620745</v>
+        <v>0.50382547501759323</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.79833173144916481</v>
+        <v>1.0536814525603164</v>
       </c>
       <c r="B34">
-        <v>0.6952232142857141</v>
+        <v>0.93421224489795929</v>
       </c>
       <c r="C34">
-        <v>0.24106136476329665</v>
+        <v>0.50732426303854872</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.93169489554204654</v>
+        <v>1.229701378768618</v>
       </c>
       <c r="B35">
-        <v>0.7744834183673468</v>
+        <v>1.0415020408163262</v>
       </c>
       <c r="C35">
-        <v>0.20529762448457645</v>
+        <v>0.48038359527719132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.0652005030033262</v>
+        <v>1.4059093094485051</v>
       </c>
       <c r="B36">
-        <v>0.84200892857142839</v>
+        <v>1.1315673469387755</v>
       </c>
       <c r="C36">
-        <v>0.17262882326843781</v>
+        <v>0.43175044178590977</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.1988691514283176</v>
+        <v>1.5823324304217288</v>
       </c>
       <c r="B37">
-        <v>0.89923469387755095</v>
+        <v>1.2096163265306121</v>
       </c>
       <c r="C37">
-        <v>0.13583343663552377</v>
+        <v>0.37681946985690828</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.3327215384878106</v>
+        <v>1.7589980595950736</v>
       </c>
       <c r="B38">
-        <v>0.94798469387755102</v>
+        <v>1.2777142857142858</v>
       </c>
       <c r="C38">
-        <v>9.83502857664805E-2</v>
+        <v>0.31734007350066462</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1.4667784748514969</v>
+        <v>1.9359336640173932</v>
       </c>
       <c r="B39">
-        <v>0.99109056122448969</v>
+        <v>1.3361959183673466</v>
       </c>
       <c r="C39">
-        <v>6.2586545487760312E-2</v>
+        <v>0.26275898037375867</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1.6010608972595777</v>
+        <v>2.113166877132227</v>
       </c>
       <c r="B40">
-        <v>1.0308801020408163</v>
+        <v>1.3860408163265308</v>
       </c>
       <c r="C40">
-        <v>3.3700447570332477E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.12507120213257691</v>
-      </c>
-      <c r="B42">
-        <v>0.12623015873015869</v>
-      </c>
-      <c r="C42">
-        <v>0.12623015873015869</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.25016145611672386</v>
-      </c>
-      <c r="B43">
-        <v>0.25129818594104303</v>
-      </c>
-      <c r="C43">
-        <v>0.20466716159366488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0.37528982541430467</v>
-      </c>
-      <c r="B44">
-        <v>0.36843537414965977</v>
-      </c>
-      <c r="C44">
-        <v>0.25246031746031738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.50047539672280872</v>
-      </c>
-      <c r="B45">
-        <v>0.47672902494331065</v>
-      </c>
-      <c r="C45">
-        <v>0.27045303496305717</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.62573729163079383</v>
-      </c>
-      <c r="B46">
-        <v>0.57556122448979585</v>
-      </c>
-      <c r="C46">
-        <v>0.27101530738501783</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.75109467831857712</v>
-      </c>
-      <c r="B47">
-        <v>0.66549319727891154</v>
-      </c>
-      <c r="C47">
-        <v>0.25470940714815987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.87656678331941551</v>
-      </c>
-      <c r="B48">
-        <v>0.74226190476190468</v>
-      </c>
-      <c r="C48">
-        <v>0.22209760667444406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1.0021729033565487</v>
-      </c>
-      <c r="B49">
-        <v>0.80623582766439905</v>
-      </c>
-      <c r="C49">
-        <v>0.18948580620072819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1.1279324172716496</v>
-      </c>
-      <c r="B50">
-        <v>0.8605725623582765</v>
-      </c>
-      <c r="C50">
-        <v>0.15153241771838649</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1.2538647980604314</v>
-      </c>
-      <c r="B51">
-        <v>0.90649659863945575</v>
-      </c>
-      <c r="C51">
-        <v>0.11217334818114325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1.3799896250313968</v>
-      </c>
-      <c r="B52">
-        <v>0.94612811791383211</v>
-      </c>
-      <c r="C52">
-        <v>7.5906776964683412E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1.5063265961040024</v>
-      </c>
-      <c r="B53">
-        <v>0.98238095238095247</v>
-      </c>
-      <c r="C53">
-        <v>4.8636564499593443E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0.11819687796858622</v>
-      </c>
-      <c r="B55">
-        <v>0.11923469387755099</v>
-      </c>
-      <c r="C55">
-        <v>0.11923469387755101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0.23641176063638941</v>
-      </c>
-      <c r="B56">
-        <v>0.23742857142857138</v>
-      </c>
-      <c r="C56">
-        <v>0.18800491150817167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.35466266367478028</v>
-      </c>
-      <c r="B57">
-        <v>0.35063775510204076</v>
-      </c>
-      <c r="C57">
-        <v>0.24069576170717244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.47296762471364917</v>
-      </c>
-      <c r="B58">
-        <v>0.45744897959183667</v>
-      </c>
-      <c r="C58">
-        <v>0.27681249470742647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0.5913447143562266</v>
-      </c>
-      <c r="B59">
-        <v>0.55479591836734687</v>
-      </c>
-      <c r="C59">
-        <v>0.2916549877212295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0.7098120472366668</v>
-      </c>
-      <c r="B60">
-        <v>0.64371428571428568</v>
-      </c>
-      <c r="C60">
-        <v>0.29190236260479291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>0.82838779313479394</v>
-      </c>
-      <c r="B61">
-        <v>0.72168367346938767</v>
-      </c>
-      <c r="C61">
-        <v>0.28200736726225756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0.94709018816254309</v>
-      </c>
-      <c r="B62">
-        <v>0.78712244897959172</v>
-      </c>
-      <c r="C62">
-        <v>0.26444375052925728</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1.0659375460367841</v>
-      </c>
-      <c r="B63">
-        <v>0.84231122448979578</v>
-      </c>
-      <c r="C63">
-        <v>0.23772726310441183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1.1849482694534113</v>
-      </c>
-      <c r="B64">
-        <v>0.89076530612244886</v>
-      </c>
-      <c r="C64">
-        <v>0.21051602591243962</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1.3041408615778078</v>
-      </c>
-      <c r="B65">
-        <v>0.93383163265306102</v>
-      </c>
-      <c r="C65">
-        <v>0.18182053941908707</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1.4235339376670648</v>
-      </c>
-      <c r="B66">
-        <v>0.97221428571428559</v>
-      </c>
-      <c r="C66">
-        <v>0.15460930222711489</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0.10826277639044367</v>
-      </c>
-      <c r="B68">
-        <v>0.10855911330049259</v>
-      </c>
-      <c r="C68">
-        <v>0.1085591133004926</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0.21654204423784287</v>
-      </c>
-      <c r="B69">
-        <v>0.21681914144968326</v>
-      </c>
-      <c r="C69">
-        <v>0.18271443535797194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0.32485430504912977</v>
-      </c>
-      <c r="B70">
-        <v>0.32153852920478532</v>
-      </c>
-      <c r="C70">
-        <v>0.23690486301536068</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.43321608044420618</v>
-      </c>
-      <c r="B71">
-        <v>0.42138019000703719</v>
-      </c>
-      <c r="C71">
-        <v>0.27612161987268158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>0.54164392224500235</v>
-      </c>
-      <c r="B72">
-        <v>0.51453201970443341</v>
-      </c>
-      <c r="C72">
-        <v>0.29893864204421361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0.65015442260370104</v>
-      </c>
-      <c r="B73">
-        <v>0.60167135819845174</v>
-      </c>
-      <c r="C73">
-        <v>0.30945586320140417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0.75876422418332345</v>
-      </c>
-      <c r="B74">
-        <v>0.6799876847290639</v>
-      </c>
-      <c r="C74">
-        <v>0.3067819934156778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0.86749003040398209</v>
-      </c>
-      <c r="B75">
-        <v>0.74721147079521455</v>
-      </c>
-      <c r="C75">
-        <v>0.29733432017277772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0.97634861576825571</v>
-      </c>
-      <c r="B76">
-        <v>0.80465781140042214</v>
-      </c>
-      <c r="C76">
-        <v>0.27861723167269281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1.085356836279322</v>
-      </c>
-      <c r="B77">
-        <v>0.85243226600985211</v>
-      </c>
-      <c r="C77">
-        <v>0.25116550187256825</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1.1945316399656809</v>
-      </c>
-      <c r="B78">
-        <v>0.89046446164672755</v>
-      </c>
-      <c r="C78">
-        <v>0.21444435681525872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1.3038900775265598</v>
-      </c>
-      <c r="B79">
-        <v>0.92031579873328617</v>
-      </c>
-      <c r="C79">
-        <v>0.1713059242722059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>0.10026157181896228</v>
-      </c>
-      <c r="B81">
-        <v>9.9764521193092592E-2</v>
-      </c>
-      <c r="C81">
-        <v>9.9764521193092606E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.20053841628703883</v>
-      </c>
-      <c r="B82">
-        <v>0.20002354788069074</v>
-      </c>
-      <c r="C82">
-        <v>0.17691205079442707</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0.30084581536057287</v>
-      </c>
-      <c r="B83">
-        <v>0.29773155416012553</v>
-      </c>
-      <c r="C83">
-        <v>0.23421767979685715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0.40119906962242013</v>
-      </c>
-      <c r="B84">
-        <v>0.39153061224489788</v>
-      </c>
-      <c r="C84">
-        <v>0.2750115173918074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>0.5016135076253716</v>
-      </c>
-      <c r="B85">
-        <v>0.48002747252747247</v>
-      </c>
-      <c r="C85">
-        <v>0.30248491822105961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>0.60210449527184706</v>
-      </c>
-      <c r="B86">
-        <v>0.56409733124018824</v>
-      </c>
-      <c r="C86">
-        <v>0.31858044597961144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>0.70268744524208027</v>
-      </c>
-      <c r="B87">
-        <v>0.6393406593406592</v>
-      </c>
-      <c r="C87">
-        <v>0.31663788228461376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>0.80337782648311951</v>
-      </c>
-      <c r="B88">
-        <v>0.70374018838304553</v>
-      </c>
-      <c r="C88">
-        <v>0.30526000921391339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>0.90419117377110003</v>
-      </c>
-      <c r="B89">
-        <v>0.76076923076923064</v>
-      </c>
-      <c r="C89">
-        <v>0.29082953605107387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1.0051430973594209</v>
-      </c>
-      <c r="B90">
-        <v>0.81069466248037669</v>
-      </c>
-      <c r="C90">
-        <v>0.27126514455145484</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1.1062492927256353</v>
-      </c>
-      <c r="B91">
-        <v>0.85463500784929336</v>
-      </c>
-      <c r="C91">
-        <v>0.2498969439064809</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1.2075255504301012</v>
-      </c>
-      <c r="B92">
-        <v>0.89284536891679733</v>
-      </c>
-      <c r="C92">
-        <v>0.22783497051329354</v>
+        <v>0.20397934162170611</v>
       </c>
     </row>
   </sheetData>

--- a/tiretrainingdata.xlsx
+++ b/tiretrainingdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarora\Documents\Local\Vehicle Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B345083-BAE1-48EA-8A81-52A1D6B8A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7C7A0-877D-477A-8980-D1B84D254BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10E3E5CB-56F8-4418-A79C-00BCE81C47B9}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{10E3E5CB-56F8-4418-A79C-00BCE81C47B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C40"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,134 +448,134 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.24025099671004005</v>
+        <v>0.13149684452957783</v>
       </c>
       <c r="B3">
-        <v>0.25247619047619041</v>
+        <v>0.13818807339449543</v>
       </c>
       <c r="C3">
-        <v>0.25247619047619041</v>
+        <v>0.1381880733944954</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.48053859038445579</v>
+        <v>0.26301371971626286</v>
       </c>
       <c r="B4">
-        <v>0.49272108843537404</v>
+        <v>0.2696815798880019</v>
       </c>
       <c r="C4">
-        <v>0.43869166127989645</v>
+        <v>0.24010959359043543</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.72089940028999633</v>
+        <v>0.39457066842394506</v>
       </c>
       <c r="B5">
-        <v>0.71575510204081627</v>
+        <v>0.39175503395686889</v>
       </c>
       <c r="C5">
-        <v>0.56435854341736691</v>
+        <v>0.30889098758769562</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.96137009032704435</v>
+        <v>0.52618775794589068</v>
       </c>
       <c r="B6">
-        <v>0.91900680272108837</v>
+        <v>0.50300101274871922</v>
       </c>
       <c r="C6">
-        <v>0.61919500107735392</v>
+        <v>0.33890468678650004</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.2019873914187169</v>
+        <v>0.65788509225899328</v>
       </c>
       <c r="B7">
-        <v>1.0998775510204082</v>
+        <v>0.60199720004765878</v>
       </c>
       <c r="C7">
-        <v>0.61576772247360467</v>
+        <v>0.33702883058657479</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.4427881239868845</v>
+        <v>0.78968282432559878</v>
       </c>
       <c r="B8">
-        <v>1.2657687074829931</v>
+        <v>0.69279459073037064</v>
       </c>
       <c r="C8">
-        <v>0.56778582202111605</v>
+        <v>0.31076684378762093</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.6838092205443826</v>
+        <v>0.92160116845892515</v>
       </c>
       <c r="B9">
-        <v>1.4106666666666665</v>
+        <v>0.77210175145954962</v>
       </c>
       <c r="C9">
-        <v>0.46953716871363921</v>
+        <v>0.25699229938976298</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.9250877484329545</v>
+        <v>1.0536604127682456</v>
       </c>
       <c r="B10">
-        <v>1.5281360544217686</v>
+        <v>0.83639640176337438</v>
       </c>
       <c r="C10">
-        <v>0.32559146735617317</v>
+        <v>0.17820633899290134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.1666609327367734</v>
+        <v>1.1858809317001733</v>
       </c>
       <c r="B11">
-        <v>1.6258503401360542</v>
+        <v>0.88987847015369959</v>
       </c>
       <c r="C11">
-        <v>0.15993966817496225</v>
+        <v>8.7539955996512916E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.408566179401805</v>
+        <v>1.3182831986926062</v>
       </c>
       <c r="B12">
-        <v>1.7062176870748296</v>
+        <v>0.93386601930179902</v>
       </c>
       <c r="C12">
-        <v>-2.0563671622495148E-2</v>
+        <v>-1.1255137199551662E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.6508410985917212</v>
+        <v>1.4508877989581461</v>
       </c>
       <c r="B13">
-        <v>1.7727482993197277</v>
+        <v>0.97028029310139419</v>
       </c>
       <c r="C13">
-        <v>-0.19421245421245417</v>
+        <v>-0.10629851799576572</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2.8935235283116096</v>
+        <v>1.5837154424140902</v>
       </c>
       <c r="B14">
-        <v>1.8270476190476188</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.3655763843999138</v>
+        <v>-0.20009132799202958</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,134 +591,134 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.20509704310546614</v>
+        <v>0.12330004493099127</v>
       </c>
       <c r="B16">
-        <v>0.21087755102040812</v>
+        <v>0.12677516517087595</v>
       </c>
       <c r="C16">
-        <v>0.21087755102040812</v>
+        <v>0.12677516517087592</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.41022532824231983</v>
+        <v>0.24661887191664064</v>
       </c>
       <c r="B17">
-        <v>0.41596938775510195</v>
+        <v>0.25007208014084764</v>
       </c>
       <c r="C17">
-        <v>0.3792483705524094</v>
+        <v>0.22799617401149677</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.61541611648099881</v>
+        <v>0.36997527445748429</v>
       </c>
       <c r="B18">
-        <v>0.60816326530612241</v>
+        <v>0.36561501229963256</v>
       </c>
       <c r="C18">
-        <v>0.50897670691313168</v>
+        <v>0.30598613164279481</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.82070070699470188</v>
+        <v>0.49338806896063986</v>
       </c>
       <c r="B19">
-        <v>0.78648979591836732</v>
+        <v>0.47282118604037709</v>
       </c>
       <c r="C19">
-        <v>0.58129335399081083</v>
+        <v>0.34946138462024179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.0261104561724763</v>
+        <v>0.61687610623019451</v>
       </c>
       <c r="B20">
-        <v>0.94689795918367348</v>
+        <v>0.56925521277444135</v>
       </c>
       <c r="C20">
-        <v>0.61331141147558488</v>
+        <v>0.36870996990796634</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.2316767968065063</v>
+        <v>0.74045828300219996</v>
       </c>
       <c r="B21">
-        <v>1.0962959183673466</v>
+        <v>0.65907013551066462</v>
       </c>
       <c r="C21">
-        <v>0.60116663105032597</v>
+        <v>0.36140878238503643</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.4374312573785908</v>
+        <v>0.86415355353930001</v>
       </c>
       <c r="B22">
-        <v>1.2314795918367345</v>
+        <v>0.7403397275063951</v>
       </c>
       <c r="C22">
-        <v>0.55755582861416808</v>
+        <v>0.33519088173451489</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.6434054814710308</v>
+        <v>0.98798094130014802</v>
       </c>
       <c r="B23">
-        <v>1.3499795918367348</v>
+        <v>0.8115794445841743</v>
       </c>
       <c r="C23">
-        <v>0.48689528795811515</v>
+        <v>0.2927112452374675</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.8496312473274039</v>
+        <v>1.1119595506989357</v>
       </c>
       <c r="B24">
-        <v>1.4522755102040816</v>
+        <v>0.87307760730739259</v>
       </c>
       <c r="C24">
-        <v>0.40132978950742598</v>
+        <v>0.24127106041682411</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.0561404875890621</v>
+        <v>1.2361085789705613</v>
       </c>
       <c r="B25">
-        <v>1.5368775510204082</v>
+        <v>0.92393858158551789</v>
       </c>
       <c r="C25">
-        <v>0.29423490757559567</v>
+        <v>0.17688786135098655</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.2629653092335631</v>
+        <v>1.3604473281571974</v>
       </c>
       <c r="B26">
-        <v>1.6060408163265305</v>
+        <v>0.96551808751449275</v>
       </c>
       <c r="C26">
-        <v>0.17830745806175871</v>
+        <v>0.10719470772301813</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.4701380137417193</v>
+        <v>1.4849952172322973</v>
       </c>
       <c r="B27">
-        <v>1.6633979591836734</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>6.0723902126295547E-2</v>
+        <v>3.6505937614650139E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,134 +734,134 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.17545751519839933</v>
+        <v>0.12658899588788453</v>
       </c>
       <c r="B29">
-        <v>0.18263673469387753</v>
+        <v>0.13176865539784435</v>
       </c>
       <c r="C29">
-        <v>0.18263673469387753</v>
+        <v>0.13176865539784435</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.35094175749687773</v>
+        <v>0.2531972748298929</v>
       </c>
       <c r="B30">
-        <v>0.35808979591836737</v>
+        <v>0.25835443783497258</v>
       </c>
       <c r="C30">
-        <v>0.32293813433419344</v>
+        <v>0.23299323550231871</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.5264794702831429</v>
+        <v>0.37984413163133868</v>
       </c>
       <c r="B31">
-        <v>0.52228571428571413</v>
+        <v>0.37681842275752392</v>
       </c>
       <c r="C31">
-        <v>0.42230371412932988</v>
+        <v>0.30468346181072442</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.7020974295412562</v>
+        <v>0.50654888461513548</v>
       </c>
       <c r="B32">
-        <v>0.67372244897959177</v>
+        <v>0.48607691854643953</v>
       </c>
       <c r="C32">
-        <v>0.48003371647509574</v>
+        <v>0.34633447357441088</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.87782246020259891</v>
+        <v>0.63333088741868404</v>
       </c>
       <c r="B33">
-        <v>0.80955102040816318</v>
+        <v>0.58407444490252658</v>
       </c>
       <c r="C33">
-        <v>0.50382547501759323</v>
+        <v>0.36349973902853616</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1.0536814525603164</v>
+        <v>0.76020954083655534</v>
       </c>
       <c r="B34">
-        <v>0.93421224489795929</v>
+        <v>0.67401495965604563</v>
       </c>
       <c r="C34">
-        <v>0.50732426303854872</v>
+        <v>0.36602404277178985</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.229701378768618</v>
+        <v>0.88720430472439882</v>
       </c>
       <c r="B35">
-        <v>1.0415020408163262</v>
+        <v>0.75142234525001461</v>
       </c>
       <c r="C35">
-        <v>0.48038359527719132</v>
+        <v>0.3465869039487362</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.4059093094485051</v>
+        <v>1.0143347099796329</v>
       </c>
       <c r="B36">
-        <v>1.1315673469387755</v>
+        <v>0.81640261499499378</v>
       </c>
       <c r="C36">
-        <v>0.43175044178590977</v>
+        <v>0.31149908191750952</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.5823324304217288</v>
+        <v>1.1416203706146522</v>
       </c>
       <c r="B37">
-        <v>1.2096163265306121</v>
+        <v>0.87271335178750198</v>
       </c>
       <c r="C37">
-        <v>0.37681946985690828</v>
+        <v>0.271867513148426</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.7589980595950736</v>
+        <v>1.2690809959384917</v>
       </c>
       <c r="B38">
-        <v>1.2777142857142858</v>
+        <v>0.92184463160374552</v>
       </c>
       <c r="C38">
-        <v>0.31734007350066462</v>
+        <v>0.22895434951311272</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1.9359336640173932</v>
+        <v>1.3967364028631288</v>
       </c>
       <c r="B39">
-        <v>1.3361959183673466</v>
+        <v>0.96403792920666687</v>
       </c>
       <c r="C39">
-        <v>0.26275898037375867</v>
+        <v>0.1895752111183546</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2.113166877132227</v>
+        <v>1.5246065283508909</v>
       </c>
       <c r="B40">
-        <v>1.3860408163265308</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.20397934162170611</v>
+        <v>0.14716690823169207</v>
       </c>
     </row>
   </sheetData>
